--- a/legendre_out/DATA/a1/a1IntegrandSplinePoints3.500000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandSplinePoints3.500000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>1.469555590675511e-08</v>
+        <v>1.475938040897255e-08</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>1.466420175939986e-08</v>
+        <v>1.473219629588556e-08</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>1.461354771932654e-08</v>
+        <v>1.468201579896769e-08</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>1.454516747036092e-08</v>
+        <v>1.461083391574128e-08</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>1.446063469632857e-08</v>
+        <v>1.452064564372845e-08</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>1.436152308105513e-08</v>
+        <v>1.441344598045138e-08</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>1.424940630836607e-08</v>
+        <v>1.429122992343209e-08</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>1.412585806208732e-08</v>
+        <v>1.41559924701931e-08</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>1.399245202604436e-08</v>
+        <v>1.400972861825642e-08</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>1.385076188406265e-08</v>
+        <v>1.385443336514404e-08</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>1.370236131996818e-08</v>
+        <v>1.369210170837856e-08</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>1.35488240175864e-08</v>
+        <v>1.352472864548194e-08</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>1.339172366074274e-08</v>
+        <v>1.335430917397617e-08</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>1.323263393326325e-08</v>
+        <v>1.318283829138386e-08</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>1.307312851897334e-08</v>
+        <v>1.301231099522698e-08</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>1.291478110169866e-08</v>
+        <v>1.284472228302772e-08</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>1.275916536526462e-08</v>
+        <v>1.268206715230805e-08</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>1.260785499349727e-08</v>
+        <v>1.252634060059058e-08</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>1.246238797895133e-08</v>
+        <v>1.237948039365081e-08</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>1.232358457202992e-08</v>
+        <v>1.224227338175912e-08</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>1.21916003038193e-08</v>
+        <v>1.211444052297536e-08</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>1.206656563828505e-08</v>
+        <v>1.199566257967412e-08</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>1.194861103939291e-08</v>
+        <v>1.188562031423013e-08</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>1.18378669711085e-08</v>
+        <v>1.178399448901803e-08</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>1.173446389739783e-08</v>
+        <v>1.169046586641283e-08</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>1.163853228222653e-08</v>
+        <v>1.160471520878915e-08</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>1.155020258956023e-08</v>
+        <v>1.152642327852163e-08</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>1.14696052833649e-08</v>
+        <v>1.145527083798524e-08</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>1.139687082760618e-08</v>
+        <v>1.139093864955461e-08</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>1.133212968624981e-08</v>
+        <v>1.133310747560451e-08</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>1.127551232326147e-08</v>
+        <v>1.128145807850961e-08</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>1.122714920260706e-08</v>
+        <v>1.123567122064481e-08</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>1.118717078825225e-08</v>
+        <v>1.119542766438477e-08</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>1.115570754416275e-08</v>
+        <v>1.116040817210422e-08</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>1.113268382147561e-08</v>
+        <v>1.113019213654202e-08</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>1.111664451186992e-08</v>
+        <v>1.11036805098764e-08</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>1.110556834720887e-08</v>
+        <v>1.107949579769507e-08</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>1.1097432333173e-08</v>
+        <v>1.105625965662115e-08</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>1.109021347544283e-08</v>
+        <v>1.103259374327766e-08</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>1.108188877969889e-08</v>
+        <v>1.100711971428766e-08</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.107043525162167e-08</v>
+        <v>1.097845922627418e-08</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>1.105382989689175e-08</v>
+        <v>1.094523393586036e-08</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>1.103004972118964e-08</v>
+        <v>1.09060654996692e-08</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>1.099707173019581e-08</v>
+        <v>1.085957557432372e-08</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>1.095287292959088e-08</v>
+        <v>1.08043858164471e-08</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>1.089543032505534e-08</v>
+        <v>1.073911788266233e-08</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>1.082272092226971e-08</v>
+        <v>1.066239342959249e-08</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>1.07327217269144e-08</v>
+        <v>1.05728341138605e-08</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.062340974467017e-08</v>
+        <v>1.046906159208966e-08</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>1.049294057633308e-08</v>
+        <v>1.034980697133084e-08</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>1.034176583831696e-08</v>
+        <v>1.021520845138176e-08</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>1.017192999697028e-08</v>
+        <v>1.006638039595342e-08</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>9.985509559701987e-09</v>
+        <v>9.904456804835528e-09</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>9.784581033920942e-09</v>
+        <v>9.730571677817718e-09</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>9.571220927036791e-09</v>
+        <v>9.54585901469032e-09</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>9.34750574645842e-09</v>
+        <v>9.351452815242992e-09</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>9.115511999594948e-09</v>
+        <v>9.1484870792656e-09</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>8.877316193855188e-09</v>
+        <v>8.938095806547743e-09</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>8.634994836648898e-09</v>
+        <v>8.721412996879842e-09</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>8.390624435384896e-09</v>
+        <v>8.499572650051499e-09</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>8.146281497471987e-09</v>
+        <v>8.273708765852292e-09</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>7.904004656640528e-09</v>
+        <v>8.044943284965136e-09</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>7.664901099597609e-09</v>
+        <v>7.814101572191603e-09</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>7.42911174950418e-09</v>
+        <v>7.581701330754114e-09</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>7.196732689596848e-09</v>
+        <v>7.34824598669141e-09</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>6.967860003113127e-09</v>
+        <v>7.114238966043129e-09</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>6.742589773289623e-09</v>
+        <v>6.880183694848015e-09</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>6.521018083362953e-09</v>
+        <v>6.646583599144796e-09</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>6.303241016570607e-09</v>
+        <v>6.413942104973122e-09</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>6.089354656149202e-09</v>
+        <v>6.182762638371725e-09</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>5.879455085335373e-09</v>
+        <v>5.953548625379347e-09</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>5.673638387366578e-09</v>
+        <v>5.726803492035625e-09</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>5.47200064547945e-09</v>
+        <v>5.5030306643793e-09</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>5.274637942910894e-09</v>
+        <v>5.282733568449404e-09</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>5.081646362897568e-09</v>
+        <v>5.066415630284695e-09</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>4.893121988676891e-09</v>
+        <v>4.854580275924785e-09</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>4.709160903485511e-09</v>
+        <v>4.64773093140842e-09</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>4.529859190560107e-09</v>
+        <v>4.446371022774381e-09</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>4.355312933138057e-09</v>
+        <v>4.251003976062235e-09</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>4.185618214456029e-09</v>
+        <v>4.06213321731075e-09</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>4.020871117750934e-09</v>
+        <v>3.880262172558966e-09</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>3.861167726259474e-09</v>
+        <v>3.705894267845699e-09</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>3.706604123218976e-09</v>
+        <v>3.539532929210443e-09</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>3.557276391866134e-09</v>
+        <v>3.381681582692003e-09</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>3.413280615437674e-09</v>
+        <v>3.232843654329229e-09</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>3.27471287717088e-09</v>
+        <v>3.09352257016155e-09</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>3.141669260302468e-09</v>
+        <v>2.964221756227802e-09</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>3.01438389389627e-09</v>
+        <v>2.845405369681996e-09</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>2.893808488930236e-09</v>
+        <v>2.737333442408034e-09</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>2.781127187932209e-09</v>
+        <v>2.640199888190218e-09</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>2.677524252678731e-09</v>
+        <v>2.55419858689048e-09</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>2.584183944946389e-09</v>
+        <v>2.479523418370812e-09</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>2.502290526512131e-09</v>
+        <v>2.41636826249349e-09</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>2.433028259152532e-09</v>
+        <v>2.364926999120489e-09</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>2.37758140464423e-09</v>
+        <v>2.325393508113845e-09</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>2.337134224764076e-09</v>
+        <v>2.297961669335745e-09</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>2.312870981288689e-09</v>
+        <v>2.282825362648208e-09</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>2.305975935994773e-09</v>
+        <v>2.280178467913315e-09</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>2.317633350659058e-09</v>
+        <v>2.29021486499317e-09</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>2.349027487058218e-09</v>
+        <v>2.313128433749825e-09</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>8.831503405632779e-09</v>
+        <v>8.747095983072433e-09</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>1.183746559649942e-08</v>
+        <v>1.181413209836386e-08</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>1.136979455582888e-08</v>
+        <v>1.12412241993329e-08</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>1.125342374433599e-08</v>
+        <v>1.120347339062079e-08</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>1.123783720811573e-08</v>
+        <v>1.130112055393446e-08</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>1.117016986557517e-08</v>
+        <v>1.124363395297535e-08</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>1.208876292976463e-08</v>
+        <v>1.207290563731023e-08</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>1.582772660586289e-08</v>
+        <v>1.572096147148424e-08</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>2.167623293204316e-08</v>
+        <v>2.158958489074877e-08</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>2.404950738113936e-08</v>
+        <v>2.413570757892026e-08</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>2.512417080861741e-08</v>
+        <v>2.531131781469337e-08</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>2.610379896569188e-08</v>
+        <v>2.617745452786864e-08</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>2.556158520464337e-08</v>
+        <v>2.534660268294121e-08</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>2.394442599302982e-08</v>
+        <v>2.369721749663069e-08</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>2.270564189735526e-08</v>
+        <v>2.311401037733381e-08</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>2.215589498323205e-08</v>
+        <v>2.301026575107129e-08</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>2.218440272830501e-08</v>
+        <v>2.259292387078545e-08</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>2.265492274853372e-08</v>
+        <v>2.289108422265686e-08</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>2.219490592248838e-08</v>
+        <v>2.226116842248446e-08</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>2.122747047289508e-08</v>
+        <v>2.107131174717352e-08</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>2.056071976612186e-08</v>
+        <v>2.053220050657797e-08</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>1.975796658404317e-08</v>
+        <v>1.978439268208172e-08</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>1.895353210264635e-08</v>
+        <v>1.899814080079021e-08</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>1.831139375837958e-08</v>
+        <v>1.842185018681197e-08</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>1.777885210691753e-08</v>
+        <v>1.796040354164228e-08</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>1.727973452402304e-08</v>
+        <v>1.74814688519649e-08</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>1.673932338850335e-08</v>
+        <v>1.686255845640452e-08</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>1.609774683157088e-08</v>
+        <v>1.608162902742761e-08</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>1.530381213106632e-08</v>
+        <v>1.517535915859436e-08</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>1.430832778133277e-08</v>
+        <v>1.418106666746438e-08</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>1.313564876584321e-08</v>
+        <v>1.313221042059034e-08</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>1.190566518387572e-08</v>
+        <v>1.20572366002245e-08</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>1.074465146724403e-08</v>
+        <v>1.098425640558124e-08</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>9.765040049288695e-09</v>
+        <v>9.948612047632735e-09</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>8.987977019174139e-09</v>
+        <v>9.0333334053971e-09</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>8.397569476845461e-09</v>
+        <v>8.340344450937997e-09</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>7.967319094340113e-09</v>
+        <v>7.907837048688349e-09</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>7.649056843022485e-09</v>
+        <v>7.642363302832731e-09</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>7.393088620974603e-09</v>
+        <v>7.437007939857285e-09</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>7.172520435704259e-09</v>
+        <v>7.240218640523182e-09</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>6.981368775259024e-09</v>
+        <v>7.051217665502537e-09</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>6.814424037364375e-09</v>
+        <v>6.87110647373396e-09</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>6.666476619746005e-09</v>
+        <v>6.700986524156297e-09</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>6.532316920129388e-09</v>
+        <v>6.541959275708153e-09</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>6.406928761761815e-09</v>
+        <v>6.395038759654049e-09</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>6.287953183150124e-09</v>
+        <v>6.260037955050861e-09</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>6.174961933339992e-09</v>
+        <v>6.135897166396697e-09</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>6.067570223583643e-09</v>
+        <v>6.021537053420722e-09</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>5.965393265133315e-09</v>
+        <v>5.915878275852119e-09</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>5.868046269241381e-09</v>
+        <v>5.817841493420207e-09</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>5.775144447160077e-09</v>
+        <v>5.726347365854168e-09</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>5.686303010141683e-09</v>
+        <v>5.640316552883228e-09</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>5.601137169438442e-09</v>
+        <v>5.558669714236574e-09</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>5.519307991493582e-09</v>
+        <v>5.480465167250625e-09</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>5.440703709387216e-09</v>
+        <v>5.405443185111711e-09</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>5.365282773624193e-09</v>
+        <v>5.333554834211533e-09</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>5.293003655266043e-09</v>
+        <v>5.264751242652911e-09</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>5.2238248253742e-09</v>
+        <v>5.198983538538562e-09</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>5.157704755010134e-09</v>
+        <v>5.13620284997124e-09</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>5.09460191523528e-09</v>
+        <v>5.076360305053671e-09</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>5.034474777111163e-09</v>
+        <v>5.019407031888661e-09</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>4.97728181169922e-09</v>
+        <v>4.965294158578938e-09</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>4.922981490060894e-09</v>
+        <v>4.913972813227229e-09</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>4.871532283257703e-09</v>
+        <v>4.865394123936334e-09</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>4.822892662351086e-09</v>
+        <v>4.819509218808985e-09</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>4.77702109840251e-09</v>
+        <v>4.776269225947929e-09</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>4.733876062473423e-09</v>
+        <v>4.735625273455906e-09</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>4.693416025625331e-09</v>
+        <v>4.697528489435703e-09</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>4.655599458919682e-09</v>
+        <v>4.661930001990056e-09</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>4.620384833417925e-09</v>
+        <v>4.6287809392217e-09</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>4.58773062018156e-09</v>
+        <v>4.598032429233421e-09</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>4.557595290272036e-09</v>
+        <v>4.569635600127955e-09</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>4.529937314750822e-09</v>
+        <v>4.543541580008055e-09</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>4.504715164679371e-09</v>
+        <v>4.519701496976462e-09</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>4.481887311119175e-09</v>
+        <v>4.498066479135953e-09</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>4.461412225131688e-09</v>
+        <v>4.478587654589268e-09</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>4.44324837777837e-09</v>
+        <v>4.461216151439153e-09</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>4.427354240120701e-09</v>
+        <v>4.445903097788375e-09</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>4.413688283220141e-09</v>
+        <v>4.432599621739679e-09</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>4.402208978138156e-09</v>
+        <v>4.42125685139582e-09</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>4.392874795936212e-09</v>
+        <v>4.411825914859544e-09</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>4.385644207675781e-09</v>
+        <v>4.404257940233613e-09</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>4.380475684418326e-09</v>
+        <v>4.398504055620777e-09</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>4.377327697225313e-09</v>
+        <v>4.394515389123787e-09</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>4.37615871715821e-09</v>
+        <v>4.392243068845395e-09</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>4.376927215278484e-09</v>
+        <v>4.391638222888357e-09</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>4.379591662647601e-09</v>
+        <v>4.392651979355423e-09</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>4.384110521515046e-09</v>
+        <v>4.395235460337841e-09</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>4.390410768585796e-09</v>
+        <v>4.399318308582114e-09</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>4.398317177382174e-09</v>
+        <v>4.404760444127784e-09</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>4.407633820256159e-09</v>
+        <v>4.411407664737601e-09</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>4.418164769559719e-09</v>
+        <v>4.419105768174311e-09</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>4.429714097644831e-09</v>
+        <v>4.427700552200662e-09</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>4.442085876863471e-09</v>
+        <v>4.437037814579407e-09</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>4.455084179567619e-09</v>
+        <v>4.4469633530733e-09</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>4.468513078109239e-09</v>
+        <v>4.457322965445079e-09</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>4.482176644840311e-09</v>
+        <v>4.467962449457499e-09</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>4.495878952112812e-09</v>
+        <v>4.478727602873309e-09</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>4.50942407227872e-09</v>
+        <v>4.489464223455263e-09</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>4.522616077689999e-09</v>
+        <v>4.500018108966102e-09</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>4.535259040698628e-09</v>
+        <v>4.51023505716858e-09</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>4.547157033656592e-09</v>
+        <v>4.519960865825449e-09</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>4.558114128915849e-09</v>
+        <v>4.52904133269945e-09</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>4.567934398828384e-09</v>
+        <v>4.537322255553339e-09</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>4.57642191574617e-09</v>
+        <v>4.544649432149861e-09</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>4.583380752021185e-09</v>
+        <v>4.550868660251773e-09</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>4.588614980005398e-09</v>
+        <v>4.555825737621815e-09</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>4.591928672050787e-09</v>
+        <v>4.559366462022742e-09</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>4.593125900509327e-09</v>
+        <v>4.561336631217303e-09</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>4.592010737732992e-09</v>
+        <v>4.561582042968244e-09</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>4.588387256073757e-09</v>
+        <v>4.559948495038317e-09</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>4.582059527883597e-09</v>
+        <v>4.55628178519027e-09</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>4.572831625514484e-09</v>
+        <v>4.550427711186853e-09</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>4.560507621318398e-09</v>
+        <v>4.542232070790816e-09</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>4.544923730389609e-09</v>
+        <v>4.531551696141024e-09</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>4.526087902283838e-09</v>
+        <v>4.518302374602433e-09</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>4.504065206515822e-09</v>
+        <v>4.502419502417982e-09</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>4.478920751067269e-09</v>
+        <v>4.483838489036045e-09</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>4.450719643919894e-09</v>
+        <v>4.462494743904993e-09</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>4.419526993055394e-09</v>
+        <v>4.438323676473191e-09</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>4.385407906455513e-09</v>
+        <v>4.411260696189038e-09</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>4.34842749210195e-09</v>
+        <v>4.381241212500897e-09</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>4.308650857976401e-09</v>
+        <v>4.348200634857129e-09</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>4.266143112060616e-09</v>
+        <v>4.312074372706136e-09</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>4.220969362336292e-09</v>
+        <v>4.272797835496284e-09</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>4.173194716785142e-09</v>
+        <v>4.230306432675944e-09</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>4.122884283388858e-09</v>
+        <v>4.184535573693472e-09</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>4.070103170129195e-09</v>
+        <v>4.135420667997282e-09</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>4.014916484987852e-09</v>
+        <v>4.082897125035732e-09</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>3.957389335946512e-09</v>
+        <v>4.026900354257171e-09</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>3.89758683098694e-09</v>
+        <v>3.967365765110023e-09</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>3.835559849475977e-09</v>
+        <v>3.904235534477459e-09</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>3.771208125911656e-09</v>
+        <v>3.837523726988495e-09</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>3.704340253265087e-09</v>
+        <v>3.767287756139803e-09</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>3.634763567681505e-09</v>
+        <v>3.693585633201572e-09</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>3.562285405306055e-09</v>
+        <v>3.616475369443893e-09</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>3.486713102283914e-09</v>
+        <v>3.536014976136892e-09</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>3.407853994760221e-09</v>
+        <v>3.452262464550652e-09</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>3.325515418880221e-09</v>
+        <v>3.365275845955375e-09</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>3.239504710789055e-09</v>
+        <v>3.275113131621148e-09</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>3.149629206631857e-09</v>
+        <v>3.181832332818052e-09</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>3.055696242553882e-09</v>
+        <v>3.085491460816295e-09</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>2.95751315470027e-09</v>
+        <v>2.986148526885961e-09</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>2.854887279216145e-09</v>
+        <v>2.883861542297126e-09</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>2.747755451011799e-09</v>
+        <v>2.77879543898901e-09</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>2.637640818283429e-09</v>
+        <v>2.672424888632655e-09</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>2.527129724170651e-09</v>
+        <v>2.567102389916304e-09</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>2.418828107181995e-09</v>
+        <v>2.465196620446603e-09</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>2.315341905826134e-09</v>
+        <v>2.369076257830336e-09</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>2.219277058611598e-09</v>
+        <v>2.281109979674148e-09</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>2.133239504046961e-09</v>
+        <v>2.20366646358473e-09</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>2.059835180640771e-09</v>
+        <v>2.139114387168746e-09</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>2.001670026901672e-09</v>
+        <v>2.089822428032948e-09</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>1.961349981338204e-09</v>
+        <v>2.058159263783995e-09</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>1.94148098245894e-09</v>
+        <v>2.046493572028577e-09</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>1.944668968772474e-09</v>
+        <v>2.057194030373396e-09</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>1.97351987878737e-09</v>
+        <v>2.092629316425135e-09</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>2.030409707156746e-09</v>
+        <v>2.154939962754132e-09</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>2.11444313851273e-09</v>
+        <v>2.243020782917443e-09</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>2.222290484929785e-09</v>
+        <v>2.35335126167565e-09</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>2.350564097470305e-09</v>
+        <v>2.482353376198287e-09</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>2.495876327196724e-09</v>
+        <v>2.626449103654928e-09</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>2.654839525171272e-09</v>
+        <v>2.782060421214944e-09</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>2.824066042456377e-09</v>
+        <v>2.945609306047902e-09</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>3.000168230114402e-09</v>
+        <v>3.113517735323305e-09</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>3.179758439207791e-09</v>
+        <v>3.282207686210731e-09</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>3.359449020798746e-09</v>
+        <v>3.448101135879531e-09</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>3.535852325949712e-09</v>
+        <v>3.607620061499284e-09</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>3.705580705723126e-09</v>
+        <v>3.757186440239558e-09</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>3.865246511181198e-09</v>
+        <v>3.893222249269721e-09</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>4.011462093386371e-09</v>
+        <v>4.012149465759347e-09</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>4.141064648713838e-09</v>
+        <v>4.111161182565249e-09</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>4.254037706938345e-09</v>
+        <v>4.198240964497433e-09</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>4.352679975014469e-09</v>
+        <v>4.289312365952051e-09</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>4.439372943009444e-09</v>
+        <v>4.400480191808686e-09</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>4.532109546541032e-09</v>
+        <v>4.546293155063387e-09</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>4.689470711379011e-09</v>
+        <v>4.736915080725735e-09</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>4.92679855264069e-09</v>
+        <v>4.963388290326928e-09</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>5.177911800190617e-09</v>
+        <v>5.186672523322144e-09</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>5.377461545825228e-09</v>
+        <v>5.36905282569303e-09</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>5.507997669080609e-09</v>
+        <v>5.496337737577565e-09</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>5.569140388583154e-09</v>
+        <v>5.562719185015426e-09</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>5.560530856536689e-09</v>
+        <v>5.562399374700718e-09</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>5.482637156467438e-09</v>
+        <v>5.490577900161857e-09</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>5.352233411032797e-09</v>
+        <v>5.362121561029106e-09</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>5.201021209660374e-09</v>
+        <v>5.20990162528865e-09</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>5.061252684061768e-09</v>
+        <v>5.067453386597173e-09</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>4.965179965948776e-09</v>
+        <v>4.968312138611561e-09</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>4.945055187032986e-09</v>
+        <v>4.94601317498849e-09</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>5.033130479026057e-09</v>
+        <v>5.034091789384704e-09</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>5.261657973639785e-09</v>
+        <v>5.266083275457089e-09</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>5.662889802585638e-09</v>
+        <v>5.675522926862195e-09</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>6.248591889615278e-09</v>
+        <v>6.274336675971589e-09</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>6.792653533525899e-09</v>
+        <v>6.823532279378396e-09</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>6.991952173414865e-09</v>
+        <v>7.00244493093984e-09</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>6.919533416148724e-09</v>
+        <v>6.885025397591937e-09</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>6.763310904454176e-09</v>
+        <v>6.666007760127273e-09</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>6.622826008640478e-09</v>
+        <v>6.457751655711461e-09</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>6.484993152732736e-09</v>
+        <v>6.267628549663994e-09</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>6.329418678654756e-09</v>
+        <v>6.096197486255689e-09</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>6.135711699433183e-09</v>
+        <v>5.944018007256667e-09</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>5.898111670473961e-09</v>
+        <v>5.814276256973267e-09</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>5.659639600836385e-09</v>
+        <v>5.718916189284184e-09</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>5.473471135296269e-09</v>
+        <v>5.671704831734824e-09</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>5.392781918629427e-09</v>
+        <v>5.686409211870621e-09</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>5.464570907777363e-09</v>
+        <v>5.773901966432483e-09</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>5.652772544211631e-09</v>
+        <v>5.906131768995176e-09</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>5.861849366614259e-09</v>
+        <v>6.027178808733001e-09</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>5.994971490156189e-09</v>
+        <v>6.080517646233154e-09</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>5.976019510818695e-09</v>
+        <v>6.021833009574299e-09</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>5.817790901295597e-09</v>
+        <v>5.859231874653515e-09</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>5.556940832610339e-09</v>
+        <v>5.614886873073095e-09</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>5.23012476753113e-09</v>
+        <v>5.31097080843765e-09</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>4.873998155060886e-09</v>
+        <v>4.969656505609146e-09</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>4.523721077373499e-09</v>
+        <v>4.615426030476076e-09</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>4.20884400431515e-09</v>
+        <v>4.281424170797337e-09</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>3.957602254622232e-09</v>
+        <v>4.002826654726183e-09</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>3.798231147031296e-09</v>
+        <v>3.814809210416026e-09</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>3.756913929864073e-09</v>
+        <v>3.750207383157216e-09</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>3.82761734837264e-09</v>
+        <v>3.805116990477174e-09</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>3.97871132221992e-09</v>
+        <v>3.946443208023017e-09</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>4.177859631655771e-09</v>
+        <v>4.140285929448866e-09</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>4.392726056929761e-09</v>
+        <v>4.352745048408564e-09</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>4.590974378291735e-09</v>
+        <v>4.549920458556222e-09</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>4.740268375991452e-09</v>
+        <v>4.697912053545865e-09</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>4.80827183027868e-09</v>
+        <v>4.762819727031533e-09</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>4.762786598830424e-09</v>
+        <v>4.710889301161442e-09</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>4.589599808035294e-09</v>
+        <v>4.527374507145807e-09</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>4.310137982216751e-09</v>
+        <v>4.23519492627653e-09</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>3.95002314926284e-09</v>
+        <v>3.861704199269572e-09</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>3.534877337061234e-09</v>
+        <v>3.434255966840503e-09</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>3.090322573499717e-09</v>
+        <v>2.980203869705009e-09</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>2.641980886465873e-09</v>
+        <v>2.526901548578573e-09</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>2.215474303847895e-09</v>
+        <v>2.101702644177297e-09</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>1.836424853533361e-09</v>
+        <v>1.731960797216658e-09</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>1.530400858177379e-09</v>
+        <v>1.444969427590989e-09</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>1.311865232282436e-09</v>
+        <v>1.255569224476368e-09</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>1.170639420559539e-09</v>
+        <v>1.150969872083037e-09</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>1.09323171648502e-09</v>
+        <v>1.114665947568233e-09</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>1.066150413535203e-09</v>
+        <v>1.130152028089204e-09</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>1.07590380518644e-09</v>
+        <v>1.180922690803167e-09</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>1.109000184915035e-09</v>
+        <v>1.250472512867353e-09</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>1.151947846197341e-09</v>
+        <v>1.322296071439027e-09</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>1.191255082509641e-09</v>
+        <v>1.379887943675354e-09</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>1.214224452838054e-09</v>
+        <v>1.407742493736405e-09</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>1.220238569951717e-09</v>
+        <v>1.405559933973927e-09</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>1.218080303297442e-09</v>
+        <v>1.384873112468855e-09</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>1.216780236624417e-09</v>
+        <v>1.357526689330842e-09</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>1.225368953681824e-09</v>
+        <v>1.335365324669516e-09</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>1.252877038218862e-09</v>
+        <v>1.33023367859451e-09</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>1.308335073984693e-09</v>
+        <v>1.353976411215465e-09</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>1.400773644728507e-09</v>
+        <v>1.418438182642007e-09</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>1.539223334199484e-09</v>
+        <v>1.535463652983766e-09</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>1.729360123745551e-09</v>
+        <v>1.712835664821234e-09</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>1.96302539825693e-09</v>
+        <v>1.941585863520331e-09</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>2.22849463989104e-09</v>
+        <v>2.208428230385794e-09</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>2.514043327154791e-09</v>
+        <v>2.500076742302277e-09</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>2.807946938555226e-09</v>
+        <v>2.803245376154572e-09</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>3.098480952598986e-09</v>
+        <v>3.104648108827053e-09</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>3.373920847793115e-09</v>
+        <v>3.390998917204511e-09</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>3.622542102644626e-09</v>
+        <v>3.649011778171708e-09</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>3.832730069393898e-09</v>
+        <v>3.865514100663349e-09</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>4.013477171548023e-09</v>
+        <v>4.048607735335502e-09</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>4.21849897376782e-09</v>
+        <v>4.252566055607297e-09</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>4.507372685786172e-09</v>
+        <v>4.537713912318557e-09</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>4.939675517336206e-09</v>
+        <v>4.964376156309349e-09</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>5.574984678150965e-09</v>
+        <v>5.592877638419656e-09</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>6.472877377963965e-09</v>
+        <v>6.483543209489928e-09</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>7.692930826507469e-09</v>
+        <v>7.696697720359372e-09</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>9.294722233514856e-09</v>
+        <v>9.292666021868308e-09</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>1.133653022043887e-08</v>
+        <v>1.133046912992579e-08</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>1.38038883530908e-08</v>
+        <v>1.379608909494561e-08</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>1.657245184475772e-08</v>
+        <v>1.656518567632224e-08</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>1.950875238776982e-08</v>
+        <v>1.950425825098169e-08</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>2.247932167445761e-08</v>
+        <v>2.247980619585029e-08</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>2.535069139714753e-08</v>
+        <v>2.53583288878503e-08</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>2.79893932481701e-08</v>
+        <v>2.800632570390805e-08</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>3.026195891985542e-08</v>
+        <v>3.029029602094946e-08</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>3.203492010453056e-08</v>
+        <v>3.207673921589743e-08</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>3.320122872725058e-08</v>
+        <v>3.325849778752424e-08</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>3.37921096131e-08</v>
+        <v>3.386628356722497e-08</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>3.388387089223585e-08</v>
+        <v>3.397576010998949e-08</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>3.355284550566049e-08</v>
+        <v>3.366261570923931e-08</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>3.287536639437653e-08</v>
+        <v>3.300253865839624e-08</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>3.192776649938644e-08</v>
+        <v>3.207121725088188e-08</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>3.078637876169209e-08</v>
+        <v>3.094433978011731e-08</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>2.952753612229701e-08</v>
+        <v>2.969759453952519e-08</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>2.82275704730257e-08</v>
+        <v>2.840666878687895e-08</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>2.69487511838556e-08</v>
+        <v>2.713336860235896e-08</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>2.570403142558726e-08</v>
+        <v>2.58908198275345e-08</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>2.449555968189703e-08</v>
+        <v>2.468148294946451e-08</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>2.332548443646181e-08</v>
+        <v>2.350781845520849e-08</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>2.219595417295805e-08</v>
+        <v>2.237228683182544e-08</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>2.110911737506367e-08</v>
+        <v>2.127734856637591e-08</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>2.006712252645507e-08</v>
+        <v>2.022546414591886e-08</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>1.907211811080918e-08</v>
+        <v>1.921909405751381e-08</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>1.812625261180252e-08</v>
+        <v>1.826069878821985e-08</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>1.723167451311284e-08</v>
+        <v>1.735273882509734e-08</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>1.639053229841663e-08</v>
+        <v>1.649767465520535e-08</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>1.560497445139048e-08</v>
+        <v>1.569796676560304e-08</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>1.487714945571201e-08</v>
+        <v>1.495607564335063e-08</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>1.420920579505778e-08</v>
+        <v>1.427446177550726e-08</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>1.360329195310446e-08</v>
+        <v>1.365558564913217e-08</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>1.30615564135295e-08</v>
+        <v>1.310190775128542e-08</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>1.258614766000955e-08</v>
+        <v>1.261588856902623e-08</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>1.217858810137214e-08</v>
+        <v>1.219932267612251e-08</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>1.183621781931967e-08</v>
+        <v>1.184955618906069e-08</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>1.155466327377599e-08</v>
+        <v>1.15621125612379e-08</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>1.132954574758974e-08</v>
+        <v>1.133250973954802e-08</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>1.115648652360974e-08</v>
+        <v>1.115626567088511e-08</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>1.103110688468474e-08</v>
+        <v>1.102889830214319e-08</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>1.094902811366366e-08</v>
+        <v>1.094592558021642e-08</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>1.090587149339526e-08</v>
+        <v>1.09028654519988e-08</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>1.089725830672833e-08</v>
+        <v>1.089523586438438e-08</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>1.091880983651171e-08</v>
+        <v>1.091855476426723e-08</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>1.096614736559417e-08</v>
+        <v>1.096834009854139e-08</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>1.103489217682459e-08</v>
+        <v>1.104010981410097e-08</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>1.112066555305168e-08</v>
+        <v>1.112938185783995e-08</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>1.12190887771243e-08</v>
+        <v>1.123167417665242e-08</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>1.13257831318913e-08</v>
+        <v>1.134250471743249e-08</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>1.143636990020135e-08</v>
+        <v>1.145739142707406e-08</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>1.154647036490345e-08</v>
+        <v>1.157185225247139e-08</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>1.165170580884629e-08</v>
+        <v>1.168140514051844e-08</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>1.174769751487862e-08</v>
+        <v>1.178156803810917e-08</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>1.183006676584941e-08</v>
+        <v>1.186785889213781e-08</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>1.189443484460731e-08</v>
+        <v>1.193579564949828e-08</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>1.193642303400126e-08</v>
+        <v>1.198089625708475e-08</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>1.195165261688e-08</v>
+        <v>1.19986786617912e-08</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>1.193574487609234e-08</v>
+        <v>1.198466081051171e-08</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>1.188432109448708e-08</v>
+        <v>1.193436065014032e-08</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>1.179300255491302e-08</v>
+        <v>1.184329612757107e-08</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>1.165783218753074e-08</v>
+        <v>1.170741652200177e-08</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>1.147976904759493e-08</v>
+        <v>1.152770015824063e-08</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>1.126295077086331e-08</v>
+        <v>1.130837695173279e-08</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>1.101156827970775e-08</v>
+        <v>1.105373132849986e-08</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>1.07298124964994e-08</v>
+        <v>1.076804771456272e-08</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>1.04218743436101e-08</v>
+        <v>1.045561053594298e-08</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>1.009194474341176e-08</v>
+        <v>1.012070421866229e-08</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>9.744214618275406e-09</v>
+        <v>9.767613188741433e-09</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>9.382874890572949e-09</v>
+        <v>9.400621872202056e-09</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>9.012116482676337e-09</v>
+        <v>9.024014695065866e-09</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>8.636130316956523e-09</v>
+        <v>8.642076083353554e-09</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>8.25910731578579e-09</v>
+        <v>8.259090463087162e-09</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>7.885238401535069e-09</v>
+        <v>7.879342260287362e-09</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>7.518714496576327e-09</v>
+        <v>7.507115900975869e-09</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>7.163726523281491e-09</v>
+        <v>7.146695811174367e-09</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>6.824465404021534e-09</v>
+        <v>6.802366416903564e-09</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>6.505122061168404e-09</v>
+        <v>6.478412144185167e-09</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>6.209807109444993e-09</v>
+        <v>6.179035222224029e-09</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>5.940310829406132e-09</v>
+        <v>5.906062962208187e-09</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>5.695805135540184e-09</v>
+        <v>5.658642714468514e-09</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>5.475321755327781e-09</v>
+        <v>5.435778344550395e-09</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>5.277892416248965e-09</v>
+        <v>5.236473717998612e-09</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>5.102548845784532e-09</v>
+        <v>5.059732700358716e-09</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>4.948322771414613e-09</v>
+        <v>4.904559157175578e-09</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>4.814245920619813e-09</v>
+        <v>4.769956953994556e-09</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>4.69935002088067e-09</v>
+        <v>4.654929956360931e-09</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>4.60266679967742e-09</v>
+        <v>4.558482029819689e-09</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>4.523227984490613e-09</v>
+        <v>4.479617039916124e-09</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>4.460065302800742e-09</v>
+        <v>4.417338852195478e-09</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>4.412210482088135e-09</v>
+        <v>4.370651332202826e-09</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>4.378695249833296e-09</v>
+        <v>4.338558345483421e-09</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>4.358551333516681e-09</v>
+        <v>4.32006375758246e-09</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>4.350810460618692e-09</v>
+        <v>4.314171434045099e-09</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>4.354504358619797e-09</v>
+        <v>4.319885240416549e-09</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>4.368664755000419e-09</v>
+        <v>4.336209042241981e-09</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>4.392323377241024e-09</v>
+        <v>4.36214670506661e-09</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>4.424511952822015e-09</v>
+        <v>4.396702094435583e-09</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>4.46426220922389e-09</v>
+        <v>4.438879075894148e-09</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>4.510605873927064e-09</v>
+        <v>4.487681514987467e-09</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>4.562574674411932e-09</v>
+        <v>4.542113277260677e-09</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>4.619200338159028e-09</v>
+        <v>4.601178228259066e-09</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>4.679514592648749e-09</v>
+        <v>4.663880233527774e-09</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>4.742549165361474e-09</v>
+        <v>4.729223158611928e-09</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>4.807335783777766e-09</v>
+        <v>4.796210869056839e-09</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>4.872906175378005e-09</v>
+        <v>4.863847230407635e-09</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>4.938292067642576e-09</v>
+        <v>4.931136108209442e-09</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>5.002525188052038e-09</v>
+        <v>4.997081368007574e-09</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>5.064637264086771e-09</v>
+        <v>5.060686875347154e-09</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>5.123660023227165e-09</v>
+        <v>5.12095649577332e-09</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>5.178625192953773e-09</v>
+        <v>5.176894094831372e-09</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>5.228564500746935e-09</v>
+        <v>5.227503538066396e-09</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>5.27250967408718e-09</v>
+        <v>5.271788691023671e-09</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>5.309670459429813e-09</v>
+        <v>5.30893447342019e-09</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>5.341976350316198e-09</v>
+        <v>5.340891923340774e-09</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>5.373479552128549e-09</v>
+        <v>5.371770982631061e-09</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>5.408288578164841e-09</v>
+        <v>5.40573886109401e-09</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>5.45051194172305e-09</v>
+        <v>5.446962768532578e-09</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>5.504258156101261e-09</v>
+        <v>5.499609914749831e-09</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>5.573635734597451e-09</v>
+        <v>5.567847509548733e-09</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>5.662753190509545e-09</v>
+        <v>5.65584276273219e-09</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>5.775719037135713e-09</v>
+        <v>5.767762884103352e-09</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>5.916641787773758e-09</v>
+        <v>5.907775083465007e-09</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>6.08962995572194e-09</v>
+        <v>6.080046570620398e-09</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>6.298792054278161e-09</v>
+        <v>6.288744555372407e-09</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>6.54823659674019e-09</v>
+        <v>6.538036247523789e-09</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>6.842072096406486e-09</v>
+        <v>6.832088856877983e-09</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>7.184407066574856e-09</v>
+        <v>7.175069593237781e-09</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>7.579350020542932e-09</v>
+        <v>7.571145666405794e-09</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>8.031009471609433e-09</v>
+        <v>8.024484286185732e-09</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>8.543493933072048e-09</v>
+        <v>8.539252662380257e-09</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>9.120911918228231e-09</v>
+        <v>9.119618004791807e-09</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>9.767371940377038e-09</v>
+        <v>9.769747523224427e-09</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>1.048698251281599e-08</v>
+        <v>1.049380842748062e-08</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>1.128385214884235e-08</v>
+        <v>1.129596792736261e-08</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>1.21599979450858e-08</v>
+        <v>1.217828510271392e-08</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>1.309494571016541e-08</v>
+        <v>1.312014800909059e-08</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>1.405453127533801e-08</v>
+        <v>1.408714532296786e-08</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>1.500439649078224e-08</v>
+        <v>1.50446701895676e-08</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>1.591018320667334e-08</v>
+        <v>1.595811575410826e-08</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>1.673753327318986e-08</v>
+        <v>1.679287516181161e-08</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>1.745208854050785e-08</v>
+        <v>1.751434155789691e-08</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>1.801949085880375e-08</v>
+        <v>1.80879080875838e-08</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>1.84053820782555e-08</v>
+        <v>1.847896789609345e-08</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>1.857540404903942e-08</v>
+        <v>1.865291412864537e-08</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>1.849519862133258e-08</v>
+        <v>1.857513993045986e-08</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>1.813040764531175e-08</v>
+        <v>1.82110384467569e-08</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>1.744667297115378e-08</v>
+        <v>1.752600282275655e-08</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>1.642166333789914e-08</v>
+        <v>1.64975122864654e-08</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>1.511571778007504e-08</v>
+        <v>1.518612324790859e-08</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>1.362392858083314e-08</v>
+        <v>1.368731641422078e-08</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>1.204150828902072e-08</v>
+        <v>1.209669335015571e-08</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>1.046366945348909e-08</v>
+        <v>1.050985562047121e-08</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>8.985624623089501e-09</v>
+        <v>9.022404789925064e-09</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>7.702586346669254e-09</v>
+        <v>7.729942423271056e-09</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>6.709767173079763e-09</v>
+        <v>6.728070085267109e-09</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>6.102379651171391e-09</v>
+        <v>6.112389340670105e-09</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>5.953762794418215e-09</v>
+        <v>5.956559622721598e-09</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>6.237365183763369e-09</v>
+        <v>6.234036672392629e-09</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>6.898136841831897e-09</v>
+        <v>6.889688299903448e-09</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>7.88102564073482e-09</v>
+        <v>7.868380158216181e-09</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>9.130979452580258e-09</v>
+        <v>9.114977900290081e-09</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>1.05929461494803e-08</v>
+        <v>1.057434717908834e-08</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>1.221187360354372e-08</v>
+        <v>1.219135364757085e-08</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>1.393270968687872e-08</v>
+        <v>1.391086295869694e-08</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>1.570040227159825e-08</v>
+        <v>1.567774076543066e-08</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>1.745989922981056e-08</v>
+        <v>1.74368527207314e-08</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>1.915614843362398e-08</v>
+        <v>1.913306447755858e-08</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>2.073409775515139e-08</v>
+        <v>2.071124168887621e-08</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>2.213869506650099e-08</v>
+        <v>2.211625000764362e-08</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>2.331488823978167e-08</v>
+        <v>2.329295508682079e-08</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>2.420762514710536e-08</v>
+        <v>2.418622257937077e-08</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>2.476185366058068e-08</v>
+        <v>2.474091813825332e-08</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>2.492252165231745e-08</v>
+        <v>2.490190741642936e-08</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>2.464604054665262e-08</v>
+        <v>2.462553356371262e-08</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>2.3965674258885e-08</v>
+        <v>2.39450857066672e-08</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>2.294627680178282e-08</v>
+        <v>2.292548149651525e-08</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>2.165279930246669e-08</v>
+        <v>2.163173581696424e-08</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>2.015019288806133e-08</v>
+        <v>2.012886355172581e-08</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>1.850340868568648e-08</v>
+        <v>1.848187958450656e-08</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>1.677739782246593e-08</v>
+        <v>1.675579879901718e-08</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>1.503711142552372e-08</v>
+        <v>1.50156360789686e-08</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>1.334750062197919e-08</v>
+        <v>1.332640630806704e-08</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>1.177351653895641e-08</v>
+        <v>1.175312437002346e-08</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>1.038006842860393e-08</v>
+        <v>1.036076320235679e-08</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>9.20887127493879e-09</v>
+        <v>9.191062028111269e-09</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>8.239969409603554e-09</v>
+        <v>8.223984535073384e-09</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>7.443270776675446e-09</v>
+        <v>7.429340784574868e-09</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>6.788683320229631e-09</v>
+        <v>6.77694083794542e-09</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>6.246114984343917e-09</v>
+        <v>6.236594756517366e-09</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>5.785473713093923e-09</v>
+        <v>5.778112601620851e-09</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>5.376763958256157e-09</v>
+        <v>5.371401295892053e-09</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>4.99957789523248e-09</v>
+        <v>4.995990615104579e-09</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>4.651098641142317e-09</v>
+        <v>4.649065730130179e-09</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>4.330393722470441e-09</v>
+        <v>4.329703125700082e-09</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>4.036530665701528e-09</v>
+        <v>4.036979286545416e-09</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>3.768576997319474e-09</v>
+        <v>3.769970697396535e-09</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>3.525600243808974e-09</v>
+        <v>3.527753842984591e-09</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>3.30666793165464e-09</v>
+        <v>3.309405208040647e-09</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>3.110847587340499e-09</v>
+        <v>3.114001277295191e-09</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>2.937206737351182e-09</v>
+        <v>2.940618535479304e-09</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>2.784812908171239e-09</v>
+        <v>2.788333467323995e-09</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>2.652733626284818e-09</v>
+        <v>2.656222557559868e-09</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>2.540036418176489e-09</v>
+        <v>2.543362290917947e-09</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>2.445788810330751e-09</v>
+        <v>2.448829152129186e-09</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>2.369058329231857e-09</v>
+        <v>2.371699625924293e-09</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>2.308912501364369e-09</v>
+        <v>2.311050197034289e-09</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>2.264418853212602e-09</v>
+        <v>2.265957350189941e-09</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>2.234644911261041e-09</v>
+        <v>2.235497570122191e-09</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>2.218658201994115e-09</v>
+        <v>2.218747341561924e-09</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>2.215526251896219e-09</v>
+        <v>2.214783149239989e-09</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>2.224316587451795e-09</v>
+        <v>2.222681477887285e-09</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>2.244096735145245e-09</v>
+        <v>2.241518812234668e-09</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>2.273934221461025e-09</v>
+        <v>2.270371637013051e-09</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>2.312896572883546e-09</v>
+        <v>2.308316436953299e-09</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>2.360051315897185e-09</v>
+        <v>2.354429696786246e-09</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>2.414465976986448e-09</v>
+        <v>2.407787901242854e-09</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>2.475208082635662e-09</v>
+        <v>2.467467535053903e-09</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>2.54134515932936e-09</v>
+        <v>2.532545082950383e-09</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>2.611944733551912e-09</v>
+        <v>2.602097029663119e-09</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>2.686074331787672e-09</v>
+        <v>2.675199859922922e-09</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>2.762801480521197e-09</v>
+        <v>2.750930058460803e-09</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>2.841193706236844e-09</v>
+        <v>2.828364110007574e-09</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>2.920318535418964e-09</v>
+        <v>2.906578499294044e-09</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>2.999243494552121e-09</v>
+        <v>2.98464971105123e-09</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>3.077036110120669e-09</v>
+        <v>3.061654230009943e-09</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>3.152763908608961e-09</v>
+        <v>3.136668540900991e-09</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>3.225494416501559e-09</v>
+        <v>3.20876912845539e-09</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>3.294295160282754e-09</v>
+        <v>3.27703247740389e-09</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>3.358233666437091e-09</v>
+        <v>3.340535072477489e-09</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>3.416377461448934e-09</v>
+        <v>3.398353398407007e-09</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>3.467794346553542e-09</v>
+        <v>3.449564211253775e-09</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>3.511839538873076e-09</v>
+        <v>3.493528104915591e-09</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>3.548699822387007e-09</v>
+        <v>3.530426887942645e-09</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>3.578711498519213e-09</v>
+        <v>3.560590024981634e-09</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>3.602210868693652e-09</v>
+        <v>3.584346980679339e-09</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>3.6195342343342e-09</v>
+        <v>3.602027219682452e-09</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>3.631017896864749e-09</v>
+        <v>3.613960206637687e-09</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>3.636998157709223e-09</v>
+        <v>3.620475406191791e-09</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>3.637811318291517e-09</v>
+        <v>3.621902282991473e-09</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>3.633793680035536e-09</v>
+        <v>3.618570301683461e-09</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>3.625281544365178e-09</v>
+        <v>3.610808926914472e-09</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>3.612611212704346e-09</v>
+        <v>3.598947623331233e-09</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>3.596118986476964e-09</v>
+        <v>3.583315855580481e-09</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>3.576141167106901e-09</v>
+        <v>3.564243088308912e-09</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>3.553014056018099e-09</v>
+        <v>3.542058786163283e-09</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>3.527073954634418e-09</v>
+        <v>3.517092413790277e-09</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>3.498657164379782e-09</v>
+        <v>3.489673435836637e-09</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>3.468099986678123e-09</v>
+        <v>3.460131316949113e-09</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>3.435738722953288e-09</v>
+        <v>3.428795521774376e-09</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>3.401909674629209e-09</v>
+        <v>3.395995514959175e-09</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>3.366949143129818e-09</v>
+        <v>3.362060761150262e-09</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>3.33119342987896e-09</v>
+        <v>3.327320724994303e-09</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>3.294978836300565e-09</v>
+        <v>3.29210487113805e-09</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>3.258641663818574e-09</v>
+        <v>3.256742664228259e-09</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>3.22251821385682e-09</v>
+        <v>3.221563568911588e-09</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>3.186944787839275e-09</v>
+        <v>3.186897049834824e-09</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>3.152257687189776e-09</v>
+        <v>3.153072571644629e-09</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>3.118793213332259e-09</v>
+        <v>3.120419598987756e-09</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>3.086887667690657e-09</v>
+        <v>3.089267596510958e-09</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>3.056877351688812e-09</v>
+        <v>3.059946028860899e-09</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>3.029098566750661e-09</v>
+        <v>3.032784360684335e-09</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>3.003887614300129e-09</v>
+        <v>3.008112056628009e-09</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>2.981580795761071e-09</v>
+        <v>2.986258581338599e-09</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>2.962514412557416e-09</v>
+        <v>2.967553399462853e-09</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>2.94702476611308e-09</v>
+        <v>2.952325975647506e-09</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>2.935448157851938e-09</v>
+        <v>2.940905774539254e-09</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>2.928120889197914e-09</v>
+        <v>2.93362226078484e-09</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>2.925379261574899e-09</v>
+        <v>2.930804899030975e-09</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>2.927559570357587e-09</v>
+        <v>2.932783147993219e-09</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>2.934824493730348e-09</v>
+        <v>2.939716237158581e-09</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>2.946709056165266e-09</v>
+        <v>2.951147990321594e-09</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>2.962606493217878e-09</v>
+        <v>2.966483209225831e-09</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>2.981910040443668e-09</v>
+        <v>2.985126695614816e-09</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>3.004012933398186e-09</v>
+        <v>3.006483251232134e-09</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>3.028308407636929e-09</v>
+        <v>3.029957677821321e-09</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>3.054189698715387e-09</v>
+        <v>3.054954777125905e-09</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>3.08105004218912e-09</v>
+        <v>3.080879350889483e-09</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>3.108282673613618e-09</v>
+        <v>3.107136200855583e-09</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>3.135280828544372e-09</v>
+        <v>3.133130128767734e-09</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>3.161437742536944e-09</v>
+        <v>3.158265936369533e-09</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>3.186146651146821e-09</v>
+        <v>3.181948425404508e-09</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>3.208800789929498e-09</v>
+        <v>3.203582397616192e-09</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>3.228793394440531e-09</v>
+        <v>3.222572654748175e-09</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>3.245517700235399e-09</v>
+        <v>3.238323998543976e-09</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>3.258366942869642e-09</v>
+        <v>3.250241230747174e-09</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>3.26673435789876e-09</v>
+        <v>3.257729153101303e-09</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>3.270051448041281e-09</v>
+        <v>3.260230751281023e-09</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>3.268421558042577e-09</v>
+        <v>3.257859391716857e-09</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>3.262521201325102e-09</v>
+        <v>3.251300362862114e-09</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>3.253045267583539e-09</v>
+        <v>3.241257289473541e-09</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>3.240688646512545e-09</v>
+        <v>3.228433796307857e-09</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>3.226146227806798e-09</v>
+        <v>3.213533508121805e-09</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>3.210112901160989e-09</v>
+        <v>3.197260049672138e-09</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>3.193283556269763e-09</v>
+        <v>3.180317045715565e-09</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>3.17635308282782e-09</v>
+        <v>3.16340812100885e-09</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>3.160016370529802e-09</v>
+        <v>3.147236900308698e-09</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>3.144968309070402e-09</v>
+        <v>3.132507008371865e-09</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>3.131903788144301e-09</v>
+        <v>3.119922069955095e-09</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>3.121517697446148e-09</v>
+        <v>3.110185709815102e-09</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>3.114504926670633e-09</v>
+        <v>3.104001552708638e-09</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>3.111557040130208e-09</v>
+        <v>3.102069711127967e-09</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>3.112794763040438e-09</v>
+        <v>3.104487378037198e-09</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>3.117125511319961e-09</v>
+        <v>3.110070250664076e-09</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>3.123301489737031e-09</v>
+        <v>3.117470092416701e-09</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>3.130074903059914e-09</v>
+        <v>3.125338666703191e-09</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>3.13619795605686e-09</v>
+        <v>3.132327736931641e-09</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>3.140422853496137e-09</v>
+        <v>3.13708906651017e-09</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>3.141501800145995e-09</v>
+        <v>3.138274418846877e-09</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>3.138187000774694e-09</v>
+        <v>3.134535557349867e-09</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>3.129295802344976e-09</v>
+        <v>3.124596540404071e-09</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>3.11569644626844e-09</v>
+        <v>3.109457514386503e-09</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>3.100672113327598e-09</v>
+        <v>3.092798731667355e-09</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>3.087644545403092e-09</v>
+        <v>3.07845422008381e-09</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>3.080035484375607e-09</v>
+        <v>3.070258007473102e-09</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>3.081266672125809e-09</v>
+        <v>3.072044121672439e-09</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>3.094759850534372e-09</v>
+        <v>3.087646590519041e-09</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>3.123518772391166e-09</v>
+        <v>3.120436172077635e-09</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>3.163483499720561e-09</v>
+        <v>3.165954725319926e-09</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>3.204710305091386e-09</v>
+        <v>3.213222929927472e-09</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>3.237075926012685e-09</v>
+        <v>3.25106248152188e-09</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>3.250457099993534e-09</v>
+        <v>3.268295075724794e-09</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>3.237799410017129e-09</v>
+        <v>3.25707786206274e-09</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>3.205779729033314e-09</v>
+        <v>3.224492196942142e-09</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>3.164913888150391e-09</v>
+        <v>3.181791907520498e-09</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>3.1257178974253e-09</v>
+        <v>3.140231015450237e-09</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>3.096920744387672e-09</v>
+        <v>3.109164564146173e-09</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>3.079284772634272e-09</v>
+        <v>3.089481848424976e-09</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>3.071353122587366e-09</v>
+        <v>3.079713928403509e-09</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>3.071668840695159e-09</v>
+        <v>3.07839176433717e-09</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>3.078774973405858e-09</v>
+        <v>3.08404631648135e-09</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>3.091214567167674e-09</v>
+        <v>3.09520854509145e-09</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>3.107530668428795e-09</v>
+        <v>3.110409410422848e-09</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>3.12626632363746e-09</v>
+        <v>3.128179872730972e-09</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>3.145964579241845e-09</v>
+        <v>3.147050892271186e-09</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>3.165168481690192e-09</v>
+        <v>3.16555342929892e-09</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>3.182421077430693e-09</v>
+        <v>3.182218444069555e-09</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>3.19626541291155e-09</v>
+        <v>3.195576896838484e-09</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>3.205244534580969e-09</v>
+        <v>3.204159747861099e-09</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>3.207956213976117e-09</v>
+        <v>3.206553165241375e-09</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>3.20431972930448e-09</v>
+        <v>3.202676481478884e-09</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>3.195611742936403e-09</v>
+        <v>3.193818387456118e-09</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>3.18317081944376e-09</v>
+        <v>3.181330022329907e-09</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>3.168335523398439e-09</v>
+        <v>3.166562525257088e-09</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>3.152444419372282e-09</v>
+        <v>3.150867035394465e-09</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>3.136836071937178e-09</v>
+        <v>3.135594691898875e-09</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>3.12284904566501e-09</v>
+        <v>3.122096633927156e-09</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>3.111821905127623e-09</v>
+        <v>3.111724000636112e-09</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>3.105093214896907e-09</v>
+        <v>3.105827931182582e-09</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>3.104001539544731e-09</v>
+        <v>3.105759564723391e-09</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>3.109885443642965e-09</v>
+        <v>3.112870040415364e-09</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>3.124083491763469e-09</v>
+        <v>3.128510497415314e-09</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>3.147670136834853e-09</v>
+        <v>3.153747838929314e-09</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>3.1802236457525e-09</v>
+        <v>3.188038778417886e-09</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>3.220796034397629e-09</v>
+        <v>3.230273679992095e-09</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>3.268438737040938e-09</v>
+        <v>3.279342281835963e-09</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>3.322203187953017e-09</v>
+        <v>3.334134322133397e-09</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>3.381140821404439e-09</v>
+        <v>3.393539539068288e-09</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>3.444303071665935e-09</v>
+        <v>3.456447670824686e-09</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>3.510741373008079e-09</v>
+        <v>3.521748455586484e-09</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>3.57950722470723e-09</v>
+        <v>3.588331699041429e-09</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>3.661386979049751e-09</v>
+        <v>3.667273011094241e-09</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>3.811638141312819e-09</v>
+        <v>3.815828108310374e-09</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>4.095491241541819e-09</v>
+        <v>4.101605451965646e-09</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>4.541995082449641e-09</v>
+        <v>4.554413412823452e-09</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>5.122573056071134e-09</v>
+        <v>5.14385743878977e-09</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>5.803506606544528e-09</v>
+        <v>5.83417103700839e-09</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>6.551077178006513e-09</v>
+        <v>6.589587714621529e-09</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>7.33156621459355e-09</v>
+        <v>7.374340978771179e-09</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>8.111122438238679e-09</v>
+        <v>8.152561585842181e-09</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>8.847432248036162e-09</v>
+        <v>8.881828938634319e-09</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>9.484770181835949e-09</v>
+        <v>9.509339257113026e-09</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>9.966221856084931e-09</v>
+        <v>9.981368323127512e-09</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>1.023487288722804e-08</v>
+        <v>1.024419191852506e-08</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>1.02431091986704e-08</v>
+        <v>1.025302030860842e-08</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>1.003361037374417e-08</v>
+        <v>1.004980575700381e-08</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>9.699831004142641e-09</v>
+        <v>9.725278322962286e-09</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>9.335791521842792e-09</v>
+        <v>9.37071164893863e-09</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>9.035512358820579e-09</v>
+        <v>9.077379377386623e-09</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>8.884307753158265e-09</v>
+        <v>8.928077445206303e-09</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>8.869555960461023e-09</v>
+        <v>8.910236072350098e-09</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>8.916971174512958e-09</v>
+        <v>8.951239749746944e-09</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>8.951306054915202e-09</v>
+        <v>8.977536668975854e-09</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>8.897313261269021e-09</v>
+        <v>8.915575021615947e-09</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>8.680850116276172e-09</v>
+        <v>8.692888734811701e-09</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>8.278437052365175e-09</v>
+        <v>8.286806772815703e-09</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>7.737258104438869e-09</v>
+        <v>7.744110936991761e-09</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>7.109741412081953e-09</v>
+        <v>7.116737279768029e-09</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>6.448315114879421e-09</v>
+        <v>6.456621853572975e-09</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>5.805407352414454e-09</v>
+        <v>5.815700710833242e-09</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>5.233446264272512e-09</v>
+        <v>5.245909903977754e-09</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>4.784037565796316e-09</v>
+        <v>4.798369982822171e-09</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>4.480073542110581e-09</v>
+        <v>4.495729722930672e-09</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>4.308929304446344e-09</v>
+        <v>4.32541964313274e-09</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>4.255777472503734e-09</v>
+        <v>4.272686307182383e-09</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>4.305790665983388e-09</v>
+        <v>4.322776278834113e-09</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>4.44414150458557e-09</v>
+        <v>4.460936121842075e-09</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>4.656002608010968e-09</v>
+        <v>4.672412399960831e-09</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>4.926546595959919e-09</v>
+        <v>4.942451676944598e-09</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>5.240946088132547e-09</v>
+        <v>5.256300516547378e-09</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>5.584373704229857e-09</v>
+        <v>5.599205482524052e-09</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>5.942002063951687e-09</v>
+        <v>5.956413138628337e-09</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>6.299003786999112e-09</v>
+        <v>6.313170048615184e-09</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>6.640551493072244e-09</v>
+        <v>6.654722776238583e-09</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>6.951992334472213e-09</v>
+        <v>6.966489212854609e-09</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>7.223407835369428e-09</v>
+        <v>7.238534682877545e-09</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>7.450052292904797e-09</v>
+        <v>7.466002294379061e-09</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>7.627442432663865e-09</v>
+        <v>7.644292764816521e-09</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>7.751094980232901e-09</v>
+        <v>7.768806811648029e-09</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>7.816526661197665e-09</v>
+        <v>7.834945152331169e-09</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>7.819254201144132e-09</v>
+        <v>7.838108504323744e-09</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>7.754794325658254e-09</v>
+        <v>7.773697585083535e-09</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>7.618671403326364e-09</v>
+        <v>7.637120822245426e-09</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>7.412486443832548e-09</v>
+        <v>7.42991669404301e-09</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>7.154835414649269e-09</v>
+        <v>7.170768010502716e-09</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>6.867262609218105e-09</v>
+        <v>6.881331821380026e-09</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>6.571312320980735e-09</v>
+        <v>6.583265176430525e-09</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>6.288528843378028e-09</v>
+        <v>6.298225125408985e-09</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>6.040456469851869e-09</v>
+        <v>6.047868718071196e-09</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>5.848639493843213e-09</v>
+        <v>5.853853004172014e-09</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>5.734622208793717e-09</v>
+        <v>5.737835033467006e-09</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>5.719948908144766e-09</v>
+        <v>5.721471855711458e-09</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>5.82616388533773e-09</v>
+        <v>5.826420520660644e-09</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>6.074811433814088e-09</v>
+        <v>6.074338078069949e-09</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>6.487435847014808e-09</v>
+        <v>6.486881577694245e-09</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>7.085581418382035e-09</v>
+        <v>7.085708069289581e-09</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>7.886617935571036e-09</v>
+        <v>7.888281274050895e-09</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>8.855679245619142e-09</v>
+        <v>8.85959344160433e-09</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>9.922350373734609e-09</v>
+        <v>9.928927710725475e-09</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>1.101553500768608e-08</v>
+        <v>1.10248828106116e-08</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>1.2064136835246e-08</v>
+        <v>1.20760574704638e-08</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>1.299705954418382e-08</v>
+        <v>1.301105041948015e-08</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>1.374447909997814e-08</v>
+        <v>1.375977453711337e-08</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>1.424820208037615e-08</v>
+        <v>1.426415609577619e-08</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>1.445626822918629e-08</v>
+        <v>1.447255967667803e-08</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>1.511760688784565e-08</v>
+        <v>1.513530227298635e-08</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>1.804823883329096e-08</v>
+        <v>1.807088987272617e-08</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>2.190514721081471e-08</v>
+        <v>2.193409647531013e-08</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>2.499234634657107e-08</v>
+        <v>2.502621701574661e-08</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>2.578288584329801e-08</v>
+        <v>2.581786087412725e-08</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>2.453169710137266e-08</v>
+        <v>2.456446207702251e-08</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>2.256192631854299e-08</v>
+        <v>2.25914336477057e-08</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>2.119994204837542e-08</v>
+        <v>2.122741475189472e-08</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>2.092713472720614e-08</v>
+        <v>2.095455569198915e-08</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>2.084073022873202e-08</v>
+        <v>2.08683694386789e-08</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>2.048203499498399e-08</v>
+        <v>2.050927789415604e-08</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>1.988123771268229e-08</v>
+        <v>1.990748828735863e-08</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>1.908383822334418e-08</v>
+        <v>1.91085472853749e-08</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>1.813533636848844e-08</v>
+        <v>1.815800155529458e-08</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>1.708123198963443e-08</v>
+        <v>1.710139776420799e-08</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>1.596702492829859e-08</v>
+        <v>1.598428257920252e-08</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>1.483671482456736e-08</v>
+        <v>1.485070918529801e-08</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>1.371278433811899e-08</v>
+        <v>1.37233101610907e-08</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>1.260161566941087e-08</v>
+        <v>1.260868973948578e-08</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>1.150920276078708e-08</v>
+        <v>1.151306563427295e-08</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>1.044153955459167e-08</v>
+        <v>1.04426555592419e-08</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>9.404619993165779e-09</v>
+        <v>9.403677228179371e-09</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>8.404438018854354e-09</v>
+        <v>8.402348354875944e-09</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>7.446987573998665e-09</v>
+        <v>7.444886653118501e-09</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>6.538280345378344e-09</v>
+        <v>6.537526540248413e-09</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>5.689359400380702e-09</v>
+        <v>5.691238674762984e-09</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>4.923192215909251e-09</v>
+        <v>4.928218641976652e-09</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>4.264473880441978e-09</v>
+        <v>4.272288297541805e-09</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>3.737899482456486e-09</v>
+        <v>3.747269497110444e-09</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>3.366432627742968e-09</v>
+        <v>3.375306494743072e-09</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>3.143933973313899e-09</v>
+        <v>3.150346235026214e-09</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>3.040105269366147e-09</v>
+        <v>3.042928544001919e-09</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>3.02391634940944e-09</v>
+        <v>3.022884107154196e-09</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>3.064337046953766e-09</v>
+        <v>3.060043609967318e-09</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>3.130337195509114e-09</v>
+        <v>3.124237737925556e-09</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>3.190886628585364e-09</v>
+        <v>3.185297176513075e-09</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>3.217783411768138e-09</v>
+        <v>3.215729257014107e-09</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>3.211639034291516e-09</v>
+        <v>3.215310405797327e-09</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>3.189890148948498e-09</v>
+        <v>3.199740425449966e-09</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>3.170184252057879e-09</v>
+        <v>3.184918661391202e-09</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>3.170168839938392e-09</v>
+        <v>3.18674445904016e-09</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>3.207399066315472e-09</v>
+        <v>3.221035910890249e-09</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>3.285247680340528e-09</v>
+        <v>3.291131907539855e-09</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>3.377754977552664e-09</v>
+        <v>3.374561498329918e-09</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>3.456651422745082e-09</v>
+        <v>3.446799038916399e-09</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>3.512040008089943e-09</v>
+        <v>3.499176166107237e-09</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>3.547465420477173e-09</v>
+        <v>3.534626008867756e-09</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>3.566779912393802e-09</v>
+        <v>3.556347155239507e-09</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>3.573835736326857e-09</v>
+        <v>3.56753819326404e-09</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>3.572485144763379e-09</v>
+        <v>3.571397710982924e-09</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>3.56658039019039e-09</v>
+        <v>3.571124296437697e-09</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>3.559952984455387e-09</v>
+        <v>3.569899443734495e-09</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>3.555031982951821e-09</v>
+        <v>3.56974877615762e-09</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>3.551976548982225e-09</v>
+        <v>3.570827126615666e-09</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>3.550738907727215e-09</v>
+        <v>3.573118774602651e-09</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>3.55127128436742e-09</v>
+        <v>3.576607999612594e-09</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>3.553525904083458e-09</v>
+        <v>3.581279081139507e-09</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>3.557454992055956e-09</v>
+        <v>3.587116298677413e-09</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>3.563010773465538e-09</v>
+        <v>3.594103931720329e-09</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>3.570145473492817e-09</v>
+        <v>3.602226259762263e-09</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>3.578811317318432e-09</v>
+        <v>3.611467562297247e-09</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>3.588960530122988e-09</v>
+        <v>3.621812118819281e-09</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>3.600545337087127e-09</v>
+        <v>3.633244208822401e-09</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>3.613517963391463e-09</v>
+        <v>3.645748111800618e-09</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>3.627830634216606e-09</v>
+        <v>3.659308107247932e-09</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>3.643435574743206e-09</v>
+        <v>3.673908474658388e-09</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>3.660285010151872e-09</v>
+        <v>3.68953349352599e-09</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>3.67833116562321e-09</v>
+        <v>3.70616744334474e-09</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>3.697526266337876e-09</v>
+        <v>3.723794603608687e-09</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>3.717822537476478e-09</v>
+        <v>3.742399253811831e-09</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>3.739172204219618e-09</v>
+        <v>3.761965673448172e-09</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>3.761527491747958e-09</v>
+        <v>3.782478142011764e-09</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>3.784840625242082e-09</v>
+        <v>3.803920938996585e-09</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>3.809063829882653e-09</v>
+        <v>3.826278343896693e-09</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>3.834149330850275e-09</v>
+        <v>3.849534636206085e-09</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>3.860049353325571e-09</v>
+        <v>3.873674095418778e-09</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>3.886716122489138e-09</v>
+        <v>3.898681001028768e-09</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>3.914101863521648e-09</v>
+        <v>3.924539632530116e-09</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>3.942188440522093e-09</v>
+        <v>3.951259369885117e-09</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>3.971122779259031e-09</v>
+        <v>3.978989379709219e-09</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>4.001108928465272e-09</v>
+        <v>4.007927204646117e-09</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>4.032350992072548e-09</v>
+        <v>4.038270434086107e-09</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>4.065053074012673e-09</v>
+        <v>4.070216657419566e-09</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>4.099419278217379e-09</v>
+        <v>4.103963464036793e-09</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>4.135653708618396e-09</v>
+        <v>4.139708443328079e-09</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>4.173960469147547e-09</v>
+        <v>4.177649184683814e-09</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>4.214543663736559e-09</v>
+        <v>4.21798327749429e-09</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>4.257607396317154e-09</v>
+        <v>4.26090831114979e-09</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>4.303355770821169e-09</v>
+        <v>4.306621875040717e-09</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>4.351992891180279e-09</v>
+        <v>4.355321558557312e-09</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>4.403722861326336e-09</v>
+        <v>4.407204951089988e-09</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>4.458749785191053e-09</v>
+        <v>4.462469642029027e-09</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>4.517277766706137e-09</v>
+        <v>4.521313220764695e-09</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>4.579510909803455e-09</v>
+        <v>4.583933276687427e-09</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>4.645653318414713e-09</v>
+        <v>4.650527399187494e-09</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>4.715909096471608e-09</v>
+        <v>4.721293177655155e-09</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>4.790482347906024e-09</v>
+        <v>4.79642820148086e-09</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>4.869577176649664e-09</v>
+        <v>4.876130060054874e-09</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>4.953397686634206e-09</v>
+        <v>4.960596342767441e-09</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>5.042147981791562e-09</v>
+        <v>5.050024639009039e-09</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>5.136032166053334e-09</v>
+        <v>5.14461253816983e-09</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>5.235254343351446e-09</v>
+        <v>5.244557629640307e-09</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>5.34001861761758e-09</v>
+        <v>5.350057502810713e-09</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>5.450529092783394e-09</v>
+        <v>5.461309747071273e-09</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>5.566989872780843e-09</v>
+        <v>5.578511951812505e-09</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>5.689605061541594e-09</v>
+        <v>5.701861706424641e-09</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>5.818578762997286e-09</v>
+        <v>5.831556600297882e-09</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>5.954115081079911e-09</v>
+        <v>5.967794222822788e-09</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>6.096418119721115e-09</v>
+        <v>6.110772163389569e-09</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>6.245691982852524e-09</v>
+        <v>6.260688011388411e-09</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>6.402140774406164e-09</v>
+        <v>6.417739356209908e-09</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>6.565968598313511e-09</v>
+        <v>6.582123787244099e-09</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>6.737379558506623e-09</v>
+        <v>6.754038893881611e-09</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>6.91700281431509e-09</v>
+        <v>6.934107886244121e-09</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>7.107475935460999e-09</v>
+        <v>7.124965056078178e-09</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>7.312029115785802e-09</v>
+        <v>7.329838107453514e-09</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>7.533892635027802e-09</v>
+        <v>7.551954830450943e-09</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>7.776296772924514e-09</v>
+        <v>7.794543015150499e-09</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>8.042471809214304e-09</v>
+        <v>8.060830451633066e-09</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>8.335648023634889e-09</v>
+        <v>8.354044929978879e-09</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>8.659055695923888e-09</v>
+        <v>8.677414240268076e-09</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>9.015925105819815e-09</v>
+        <v>9.034166172581681e-09</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>9.409486533060314e-09</v>
+        <v>9.427528516999869e-09</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>9.84297025738291e-09</v>
+        <v>9.860729063602669e-09</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>1.031926348896849e-08</v>
+        <v>1.033665255268703e-08</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>1.083512538406421e-08</v>
+        <v>1.085205602381956e-08</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>1.138203082605002e-08</v>
+        <v>1.13984125482699e-08</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>1.195128154679173e-08</v>
+        <v>1.196702205577353e-08</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>1.253417927815312e-08</v>
+        <v>1.25491844760639e-08</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>1.312202575200006e-08</v>
+        <v>1.313619973887653e-08</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>1.370612270019685e-08</v>
+        <v>1.371936777394538e-08</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>1.427777185460777e-08</v>
+        <v>1.428998851100442e-08</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>1.482827494709868e-08</v>
+        <v>1.483936187978915e-08</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>1.534893370953385e-08</v>
+        <v>1.535878781003351e-08</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>1.583104987377768e-08</v>
+        <v>1.583956623147156e-08</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>1.626592517169585e-08</v>
+        <v>1.627299707383865e-08</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>1.664486133515271e-08</v>
+        <v>1.66503802668688e-08</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>1.695916009601283e-08</v>
+        <v>1.696301574029622e-08</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>1.720012318614158e-08</v>
+        <v>1.720220342385595e-08</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>1.736377359222152e-08</v>
+        <v>1.736397909423282e-08</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>1.746791641322215e-08</v>
+        <v>1.746622796306659e-08</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>1.753663432448805e-08</v>
+        <v>1.75331322206773e-08</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>1.759401058732538e-08</v>
+        <v>1.758887464515762e-08</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>1.766412846304043e-08</v>
+        <v>1.765763801460031e-08</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>1.777107121293933e-08</v>
+        <v>1.776360510709804e-08</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>1.793892209832811e-08</v>
+        <v>1.793095870074334e-08</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>1.819176438051326e-08</v>
+        <v>1.818388157362919e-08</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>1.855366177359435e-08</v>
+        <v>1.854653685404774e-08</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>1.904262275802381e-08</v>
+        <v>1.90370006556214e-08</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>1.966205865545502e-08</v>
+        <v>1.965867531967506e-08</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>2.041322542117795e-08</v>
+        <v>2.041279650868402e-08</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>2.129737901048211e-08</v>
+        <v>2.130059988512308e-08</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>2.231577537865945e-08</v>
+        <v>2.232332111146951e-08</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>2.346967048099959e-08</v>
+        <v>2.348219585019823e-08</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>2.476032027279166e-08</v>
+        <v>2.477845976378372e-08</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>2.618898070932835e-08</v>
+        <v>2.621334851470395e-08</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>2.775526126722786e-08</v>
+        <v>2.778643148522344e-08</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>2.943868020383252e-08</v>
+        <v>2.947694520928964e-08</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>3.120532740308196e-08</v>
+        <v>3.125053634978288e-08</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>3.302104702879762e-08</v>
+        <v>3.307260289428796e-08</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>3.485168324480588e-08</v>
+        <v>3.490854283039458e-08</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>3.666308021492824e-08</v>
+        <v>3.67237541456876e-08</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>3.842108210298623e-08</v>
+        <v>3.84836348277519e-08</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>4.009153307280613e-08</v>
+        <v>4.01535828641771e-08</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>4.164027728820944e-08</v>
+        <v>4.169899624254803e-08</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>4.30335397812989e-08</v>
+        <v>4.308572875503625e-08</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>4.424296769796561e-08</v>
+        <v>4.4286123115197e-08</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>4.524424494756549e-08</v>
+        <v>4.527735303825723e-08</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>4.601315165485087e-08</v>
+        <v>4.603670738533778e-08</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>4.652546794457127e-08</v>
+        <v>4.654147501755671e-08</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>4.675697394147708e-08</v>
+        <v>4.676894479603296e-08</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>4.668345514317154e-08</v>
+        <v>4.669641039595062e-08</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>4.62894145220683e-08</v>
+        <v>4.630897633208323e-08</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>4.55857998125639e-08</v>
+        <v>4.561544157182072e-08</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>4.458855442604852e-08</v>
+        <v>4.462908119891529e-08</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>4.331362177555422e-08</v>
+        <v>4.336317029897101e-08</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>4.17813935531892e-08</v>
+        <v>4.183600183221797e-08</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>4.002967321019773e-08</v>
+        <v>4.008551006800235e-08</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>3.810052383303684e-08</v>
+        <v>3.815443435086493e-08</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>3.603600850815696e-08</v>
+        <v>3.608551402533982e-08</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>3.387819032201367e-08</v>
+        <v>3.392148843596637e-08</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>3.16691323610609e-08</v>
+        <v>3.170509692728224e-08</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>2.945089771175456e-08</v>
+        <v>2.947907884382707e-08</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>2.726554946054455e-08</v>
+        <v>2.72861735301345e-08</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>2.515515069388867e-08</v>
+        <v>2.516912033074607e-08</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>2.315679206360617e-08</v>
+        <v>2.316558734198841e-08</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>2.127893241335172e-08</v>
+        <v>2.128404187292737e-08</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>1.951980346057466e-08</v>
+        <v>1.952252087018387e-08</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>1.787762415887077e-08</v>
+        <v>1.787904826287858e-08</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>1.635061346184065e-08</v>
+        <v>1.635164798013701e-08</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>1.493699032308447e-08</v>
+        <v>1.493834395108421e-08</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>1.363497369619862e-08</v>
+        <v>1.363716010484148e-08</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>1.244278253478339e-08</v>
+        <v>1.2446120370534e-08</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>1.135862846388314e-08</v>
+        <v>1.136324200754914e-08</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>1.03800125391301e-08</v>
+        <v>1.038589558420801e-08</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>9.503141652914019e-09</v>
+        <v>9.510273847506427e-09</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>8.72408532865751e-09</v>
+        <v>8.732444524586474e-09</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>8.0389130897856e-09</v>
+        <v>8.04847534259262e-09</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>7.443694459722973e-09</v>
+        <v>7.454434028668998e-09</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>6.934498961892753e-09</v>
+        <v>6.946388309958177e-09</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>6.507396119719703e-09</v>
+        <v>6.520405913604373e-09</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>6.158455456628298e-09</v>
+        <v>6.172554566751504e-09</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>5.883538311716373e-09</v>
+        <v>5.898691350764105e-09</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>5.673569836566083e-09</v>
+        <v>5.689678796824711e-09</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>5.514455375433346e-09</v>
+        <v>5.531300277450356e-09</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>5.391875362806679e-09</v>
+        <v>5.409111596185839e-09</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>5.291510233175116e-09</v>
+        <v>5.30866855657649e-09</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>5.199040421027276e-09</v>
+        <v>5.215526962167206e-09</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>5.100146360852048e-09</v>
+        <v>5.115242616503171e-09</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>4.98050848713834e-09</v>
+        <v>4.993371323129574e-09</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>4.825807234374739e-09</v>
+        <v>4.835468885591292e-09</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>4.630560391569556e-09</v>
+        <v>4.636176085972531e-09</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>4.427456139597246e-09</v>
+        <v>4.429373638417283e-09</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>4.259485885501965e-09</v>
+        <v>4.259534181205757e-09</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>4.168851111269806e-09</v>
+        <v>4.170300127297651e-09</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>4.146755590134891e-09</v>
+        <v>4.151714625870902e-09</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>4.116145605704077e-09</v>
+        <v>4.122153529128762e-09</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>4.075439011376988e-09</v>
+        <v>4.079776416442166e-09</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>4.055640201146216e-09</v>
+        <v>4.057173813876882e-09</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>4.087832363424676e-09</v>
+        <v>4.087019501702295e-09</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>4.20155449545087e-09</v>
+        <v>4.200387618407477e-09</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>4.390669053957746e-09</v>
+        <v>4.391394647421909e-09</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>4.613272759114863e-09</v>
+        <v>4.617107018102243e-09</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>4.825900300670134e-09</v>
+        <v>4.832973038185234e-09</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>4.985086368372204e-09</v>
+        <v>4.99444101540838e-09</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>5.047388989851417e-09</v>
+        <v>5.056983147791107e-09</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>4.993622000782109e-09</v>
+        <v>5.000901568650676e-09</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>4.874724030135896e-09</v>
+        <v>4.878283036132618e-09</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>4.754232215969211e-09</v>
+        <v>4.754111020166215e-09</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>4.692839283550218e-09</v>
+        <v>4.690466210108005e-09</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>4.697871001285308e-09</v>
+        <v>4.694967240354141e-09</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>4.729231365383291e-09</v>
+        <v>4.726837871101137e-09</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>4.745174198330485e-09</v>
+        <v>4.743617827006412e-09</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>4.712220073941347e-09</v>
+        <v>4.711264499490886e-09</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>4.631884237586114e-09</v>
+        <v>4.631368804193398e-09</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>4.514940284371641e-09</v>
+        <v>4.514949024260203e-09</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>4.372161868338778e-09</v>
+        <v>4.373023502847432e-09</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>4.21432264352847e-09</v>
+        <v>4.21661058311131e-09</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>4.052195825236131e-09</v>
+        <v>4.056728115210674e-09</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>3.894981490078372e-09</v>
+        <v>3.902626288330407e-09</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>3.746771936162705e-09</v>
+        <v>3.75781592432846e-09</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>3.610624612876886e-09</v>
+        <v>3.624645034866616e-09</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>3.489596969609081e-09</v>
+        <v>3.505461631607053e-09</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>3.3867464557474e-09</v>
+        <v>3.402613726211903e-09</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>3.305130520679684e-09</v>
+        <v>3.318449330343022e-09</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>3.247806477028718e-09</v>
+        <v>3.255316362584609e-09</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>3.211454635177461e-09</v>
+        <v>3.211222138533673e-09</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>3.177978771168874e-09</v>
+        <v>3.173878462658712e-09</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>3.145732503208941e-09</v>
+        <v>3.141593737741566e-09</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>3.116432518160192e-09</v>
+        <v>3.114872991469768e-09</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>3.09179550288508e-09</v>
+        <v>3.094221251530783e-09</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>3.073538144246156e-09</v>
+        <v>3.08014354561216e-09</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>3.062979432435863e-09</v>
+        <v>3.07293166240458e-09</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>3.05955279603754e-09</v>
+        <v>3.071866380710427e-09</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>3.062133414781475e-09</v>
+        <v>3.075929154659874e-09</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>3.069596382701316e-09</v>
+        <v>3.084101392433846e-09</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>3.080816793830708e-09</v>
+        <v>3.09536450221326e-09</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>3.094669742203282e-09</v>
+        <v>3.108699892179022e-09</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>3.110030321852708e-09</v>
+        <v>3.123088970512074e-09</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>3.125773626812619e-09</v>
+        <v>3.137513145393324e-09</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>3.140774751116647e-09</v>
+        <v>3.150953825003678e-09</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>3.153908788798465e-09</v>
+        <v>3.162392417524081e-09</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>3.164050833891696e-09</v>
+        <v>3.170810331135432e-09</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>3.170078320443165e-09</v>
+        <v>3.175191148314941e-09</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>3.171318342980821e-09</v>
+        <v>3.174936267612505e-09</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>3.168079355528276e-09</v>
+        <v>3.17035894838764e-09</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>3.160799268495263e-09</v>
+        <v>3.161892738442145e-09</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>3.149915992291523e-09</v>
+        <v>3.149971185577831e-09</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>3.135867437326812e-09</v>
+        <v>3.135027837596524e-09</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>3.119091514010842e-09</v>
+        <v>3.117496242300004e-09</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>3.100026132753366e-09</v>
+        <v>3.097809947490093e-09</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>3.079109203964143e-09</v>
+        <v>3.076402500968621e-09</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>3.056778638052876e-09</v>
+        <v>3.053707450537357e-09</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>3.033472345429345e-09</v>
+        <v>3.030158343998153e-09</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>3.009628236503247e-09</v>
+        <v>3.006188729152772e-09</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>2.985684221684342e-09</v>
+        <v>2.982232153803046e-09</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>2.962078211382394e-09</v>
+        <v>2.958722165750805e-09</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>2.939248116007097e-09</v>
+        <v>2.936092312797815e-09</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>2.917631845968214e-09</v>
+        <v>2.914776142745907e-09</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>2.897667311675503e-09</v>
+        <v>2.895207203396906e-09</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>2.879792423538668e-09</v>
+        <v>2.877819042552589e-09</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>2.864445091967467e-09</v>
+        <v>2.863045208014779e-09</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>2.852041005902986e-09</v>
+        <v>2.851292825005981e-09</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>2.842893359565937e-09</v>
+        <v>2.84284714674648e-09</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>2.837285815989363e-09</v>
+        <v>2.837958312209144e-09</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>2.835502035464222e-09</v>
+        <v>2.836876457106353e-09</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>2.83782567828149e-09</v>
+        <v>2.839851717150503e-09</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>2.844540404732134e-09</v>
+        <v>2.847134228053983e-09</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>2.85592987510711e-09</v>
+        <v>2.858974125529169e-09</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>2.872277749697408e-09</v>
+        <v>2.875621545288472e-09</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>2.893867688793963e-09</v>
+        <v>2.897326623044251e-09</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>2.920983352687784e-09</v>
+        <v>2.924339494508935e-09</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>2.953908401669822e-09</v>
+        <v>2.956910295394896e-09</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>2.992926496031007e-09</v>
+        <v>2.995289161414485e-09</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>3.038321296062377e-09</v>
+        <v>3.039726228280161e-09</v>
       </c>
     </row>
   </sheetData>
